--- a/documentatie/vergadering/Agenda/agenda_15-09-2017.xlsx
+++ b/documentatie/vergadering/Agenda/agenda_15-09-2017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_mit\Desktop\mappen\School\Pr\Barroc-IT\documentatie\vergadering\Agenda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\Barroc_IT2\Barroc-IT\documentatie\vergadering\Agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -968,27 +968,27 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="77" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -998,7 +998,7 @@
       <c r="H2" s="54"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="55" t="s">
         <v>19</v>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="H3" s="60"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="67" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="H4" s="63"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="70" t="s">
         <v>24</v>
       </c>
@@ -1036,7 +1036,7 @@
       <c r="H5" s="66"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1054,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -1064,7 +1064,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="13">
         <v>5</v>
@@ -1083,7 +1083,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
@@ -1098,7 +1098,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
       <c r="C10" s="13">
         <v>5</v>
@@ -1116,7 +1116,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
       <c r="C11" s="13">
         <v>5</v>
@@ -1134,7 +1134,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
       <c r="C12" s="13">
         <v>15</v>
@@ -1152,7 +1152,7 @@
       <c r="H12" s="25"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
       <c r="C13" s="13">
         <v>10</v>
@@ -1170,7 +1170,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="C14" s="13">
         <v>10</v>
@@ -1188,7 +1188,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
       <c r="C15" s="13">
         <v>5</v>
@@ -1206,7 +1206,7 @@
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="13">
         <v>5</v>
@@ -1224,7 +1224,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -1233,7 +1233,7 @@
       <c r="G17" s="30"/>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="32"/>
       <c r="C18" s="33">
         <f>SUM(C8:C17)</f>
@@ -1251,7 +1251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B19" s="37"/>
       <c r="C19" s="33"/>
       <c r="D19" s="38" t="s">
@@ -1266,7 +1266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B20" s="37"/>
       <c r="C20" s="33"/>
       <c r="D20" s="38" t="s">
@@ -1279,7 +1279,7 @@
       <c r="G20" s="39"/>
       <c r="H20" s="40"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21" s="37"/>
       <c r="C21" s="33"/>
       <c r="D21" s="38" t="s">
@@ -1292,7 +1292,7 @@
       <c r="G21" s="39"/>
       <c r="H21" s="40"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
       <c r="D22" s="43" t="s">
@@ -1305,12 +1305,12 @@
       <c r="G22" s="45"/>
       <c r="H22" s="46"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E24" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="47"/>
       <c r="E25" s="4">
         <v>1</v>
@@ -1318,7 +1318,7 @@
       <c r="F25" s="48"/>
       <c r="I25" s="49"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
       <c r="E26" s="4">
         <v>2</v>
@@ -1326,7 +1326,7 @@
       <c r="F26" s="21"/>
       <c r="I26" s="49"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
       <c r="E27" s="4">
         <v>3</v>
@@ -1334,7 +1334,7 @@
       <c r="F27" s="23"/>
       <c r="I27" s="49"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4">
@@ -1345,14 +1345,14 @@
       <c r="H28" s="50"/>
       <c r="I28" s="51"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="E29" s="4">
         <v>5</v>
       </c>
       <c r="I29" s="49"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="E30" s="4">
         <v>6</v>
@@ -1360,7 +1360,7 @@
       <c r="F30" s="48"/>
       <c r="I30" s="49"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="E31" s="4">
         <v>7</v>
@@ -1368,18 +1368,18 @@
       <c r="F31" s="48"/>
       <c r="I31" s="49"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="F32" s="48"/>
       <c r="I32" s="49"/>
     </row>
-    <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="49"/>
     </row>
-    <row r="34" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4">
         <v>1</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
     </row>
-    <row r="35" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E35" s="4">
         <v>2</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
     </row>
-    <row r="36" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E36" s="4">
         <v>3</v>
       </c>
@@ -1408,76 +1408,76 @@
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
     </row>
-    <row r="37" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.3">
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.3">
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.3">
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.3">
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.3">
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.3">
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I60" s="5"/>
     </row>
   </sheetData>
@@ -1500,7 +1500,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1512,19 +1512,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1573,6 +1567,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1583,20 +1583,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1611,6 +1597,20 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
